--- a/biology/Zoologie/Brachaelurus_waddi/Brachaelurus_waddi.xlsx
+++ b/biology/Zoologie/Brachaelurus_waddi/Brachaelurus_waddi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Requin aveugle des roches
 Le requin aveugle des roches (Brachaelurus waddi) est l'une des deux seules espèces de requin de la famille des Brachaeluridae avec Heteroscyllium colcloughi. Présent le long de la côte est de l'Australie, cette espèce de requin nocturne, vivant sur le fond de la mer est commun dans les zones rocheuses et les herbiers marins de la zone intertidale jusqu'à une profondeur de 140 m. Il rôde souvent dans les bassins de marée où il peut être piégé par la marée descendante et survivre pendant une longue période hors de l'eau. Le requin aveugle n'est pas vraiment aveugle, son nom commun vient de son habitude de fermer les yeux lorsqu'il est hors de l'eau.
@@ -514,7 +526,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans le Pacifique Ouest tropical et sud, dans des eaux allant jusqu'à 140m de fond. Il arpente les fonds récifaux (notamment la grande barrière de corail) dans la zone intertidale.
 </t>
